--- a/report_summary.xlsx
+++ b/report_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="73">
   <si>
     <t>Tên NE</t>
   </si>
@@ -40,6 +40,27 @@
     <t>Kéo dài</t>
   </si>
   <si>
+    <t>4G-TTT072S-HNI</t>
+  </si>
+  <si>
+    <t>UL_TTT093M_HNI</t>
+  </si>
+  <si>
+    <t>3G_STY084S_HNI</t>
+  </si>
+  <si>
+    <t>2G_STY033M_HNI</t>
+  </si>
+  <si>
+    <t>3G_STY033M_HNI</t>
+  </si>
+  <si>
+    <t>4G-STY033M-HNI</t>
+  </si>
+  <si>
+    <t>SR_STY033M_HNI</t>
+  </si>
+  <si>
     <t>2G_PTO019M_HNI</t>
   </si>
   <si>
@@ -49,18 +70,6 @@
     <t>4G-PTO019M-HNI</t>
   </si>
   <si>
-    <t>2G_STY033M_HNI</t>
-  </si>
-  <si>
-    <t>3G_STY033M_HNI</t>
-  </si>
-  <si>
-    <t>4G-STY033M-HNI</t>
-  </si>
-  <si>
-    <t>SR_STY033M_HNI</t>
-  </si>
-  <si>
     <t>UL_STY078M_HNI</t>
   </si>
   <si>
@@ -82,12 +91,24 @@
     <t>4G_PTO019M_HNI</t>
   </si>
   <si>
+    <t>3G_DPG027S_HNI</t>
+  </si>
+  <si>
+    <t>HUU-BANG-GIANG-MAT-SMC-TTT_HNI</t>
+  </si>
+  <si>
+    <t>THACH-HOA-TTT_HNI</t>
+  </si>
+  <si>
+    <t>KDT-PHU-HA-B4-BT2-SMC-STY_HNI</t>
+  </si>
+  <si>
+    <t>Truong-Ngan-Hang-So4-Son-Loc-STY_HNI</t>
+  </si>
+  <si>
     <t>Thon-Bao-Loc-PTO_HNI</t>
   </si>
   <si>
-    <t>Truong-Ngan-Hang-So4-Son-Loc-STY_HNI</t>
-  </si>
-  <si>
     <t>TRUNG-HUNG-NGHIA-PHU-STY_HNI</t>
   </si>
   <si>
@@ -106,10 +127,43 @@
     <t>BD-Phuc-Tho-PTO_HNI</t>
   </si>
   <si>
+    <t>KDT-TAN-TAY-DO-LK6-41-SMC-DPG_HNI</t>
+  </si>
+  <si>
+    <t>SITE_OOS</t>
+  </si>
+  <si>
+    <t>POWER_AC_EAS</t>
+  </si>
+  <si>
     <t>SITE_OOS_BY_POWER</t>
   </si>
   <si>
-    <t>POWER_AC_EAS</t>
+    <t>07/04/2025 16:16:05</t>
+  </si>
+  <si>
+    <t>07/04/2025 16:57:14</t>
+  </si>
+  <si>
+    <t>07/04/2025 17:01:29</t>
+  </si>
+  <si>
+    <t>07/04/2025 18:05:59</t>
+  </si>
+  <si>
+    <t>07/04/2025 18:08:10</t>
+  </si>
+  <si>
+    <t>07/04/2025 09:56:45</t>
+  </si>
+  <si>
+    <t>07/04/2025 09:56:28</t>
+  </si>
+  <si>
+    <t>07/04/2025 09:56:23</t>
+  </si>
+  <si>
+    <t>07/04/2025 08:28:51</t>
   </si>
   <si>
     <t>07/04/2025 07:42:05</t>
@@ -121,18 +175,6 @@
     <t>07/04/2025 07:41:37</t>
   </si>
   <si>
-    <t>07/04/2025 09:56:45</t>
-  </si>
-  <si>
-    <t>07/04/2025 09:56:28</t>
-  </si>
-  <si>
-    <t>07/04/2025 09:56:23</t>
-  </si>
-  <si>
-    <t>07/04/2025 08:28:51</t>
-  </si>
-  <si>
     <t>07/04/2025 07:41:13</t>
   </si>
   <si>
@@ -154,10 +196,25 @@
     <t>07/04/2025 07:40:44</t>
   </si>
   <si>
+    <t>06/04/2025 21:02:26</t>
+  </si>
+  <si>
+    <t>Trạm SMC mất điện - 1 - thaodtt - 07/04/2025 16:23:36</t>
+  </si>
+  <si>
+    <t>Trạm SMC mất điện - 1 - thaodtt - 07/04/2025 17:18:49</t>
+  </si>
+  <si>
+    <t>Trạm SMC mất điện - 1 - thaodtt - 07/04/2025 18:12:54</t>
+  </si>
+  <si>
+    <t>Mất điện - 1 - thaodtt - 07/04/2025 10:10:01</t>
+  </si>
+  <si>
     <t>Mất điện AC - 1 - ngocpt2 - 07/04/2025 08:06:02</t>
   </si>
   <si>
-    <t>Mất điện - 1 - thaodtt - 07/04/2025 10:10:01</t>
+    <t>Trạm viễn thông loại 3</t>
   </si>
   <si>
     <t>Trạm viễn thông loại 2</t>
@@ -166,10 +223,16 @@
     <t>Trạm viễn thông loại 1</t>
   </si>
   <si>
+    <t>Thạch Thất</t>
+  </si>
+  <si>
+    <t>Sơn Tây</t>
+  </si>
+  <si>
     <t>Phúc Thọ</t>
   </si>
   <si>
-    <t>Sơn Tây</t>
+    <t>Đan Phượng</t>
   </si>
 </sst>
 </file>
@@ -545,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,7 +618,7 @@
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="49.7109375" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
@@ -592,347 +655,497 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="H2" s="2">
-        <v>9.890000000000001</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="H3" s="2">
-        <v>9.890000000000001</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="H4" s="2">
-        <v>9.9</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="H5" s="2">
-        <v>7.64</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="H6" s="2">
-        <v>7.65</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="H7" s="2">
-        <v>7.65</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="H8" s="2">
-        <v>9.109999999999999</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="H9" s="2">
-        <v>9.9</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H10" s="2">
-        <v>9.9</v>
+        <v>11.87</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="H11" s="2">
-        <v>9.91</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="H12" s="2">
-        <v>9.91</v>
+        <v>12.66</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="H13" s="2">
-        <v>9.91</v>
+        <v>12.66</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H14" s="2">
-        <v>9.91</v>
+        <v>12.66</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="H15" s="2">
-        <v>9.91</v>
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="2">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="2">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="2">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="2">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="2">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="2">
+        <v>23.31</v>
       </c>
     </row>
   </sheetData>

--- a/report_summary.xlsx
+++ b/report_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="36">
   <si>
     <t>Tên NE</t>
   </si>
@@ -40,37 +40,88 @@
     <t>Kéo dài</t>
   </si>
   <si>
-    <t>SR_TTT032M_HNI</t>
-  </si>
-  <si>
-    <t>SR_BVI001M_HNI</t>
-  </si>
-  <si>
-    <t>Thon-Dan-Lap-TTT_HNI</t>
-  </si>
-  <si>
-    <t>BD-Tay-Dang-BVI_HNI</t>
+    <t>SR_BVI027M_HNI</t>
+  </si>
+  <si>
+    <t>UL_BVI133M_HNI</t>
+  </si>
+  <si>
+    <t>UL_DPG058M_HNI</t>
+  </si>
+  <si>
+    <t>2G_BVI010M_HNI</t>
+  </si>
+  <si>
+    <t>3G_BVI010M_HNI</t>
+  </si>
+  <si>
+    <t>4G-BVI010M-HNI</t>
+  </si>
+  <si>
+    <t>SR_BVI010M_HNI</t>
+  </si>
+  <si>
+    <t>Thon-Lien-Tong-BVI_HNI</t>
+  </si>
+  <si>
+    <t>TONG-BAT-THON-TONG-LENH-BVI_HNI</t>
+  </si>
+  <si>
+    <t>KCN-CAU-GAO-DPG_HNI</t>
+  </si>
+  <si>
+    <t>Cam-Thuong-Thon-Van-Minh-BVI_HNI</t>
   </si>
   <si>
     <t>POWER_AC_EAS</t>
   </si>
   <si>
-    <t>17/04/2025 14:54:48</t>
-  </si>
-  <si>
-    <t>16/04/2025 10:00:24</t>
+    <t>SITE_OOS_BY_POWER</t>
+  </si>
+  <si>
+    <t>06/05/2025 15:42:22</t>
+  </si>
+  <si>
+    <t>06/05/2025 15:37:25</t>
+  </si>
+  <si>
+    <t>06/05/2025 14:30:14</t>
+  </si>
+  <si>
+    <t>06/05/2025 13:42:12</t>
+  </si>
+  <si>
+    <t>06/05/2025 13:41:56</t>
+  </si>
+  <si>
+    <t>06/05/2025 13:41:51</t>
+  </si>
+  <si>
+    <t>06/05/2025 06:18:28</t>
+  </si>
+  <si>
+    <t>184205 - VTHN TĐML - HNI dựng lại côt thay cáp - 4 - thainh1 - 06/05/2025 13:56:39</t>
+  </si>
+  <si>
+    <t>184205 - VTHN TĐML - HNI dựng lại côt thay cáp - 4 - thainh1 - 06/05/2025 13:56:40</t>
+  </si>
+  <si>
+    <t>Mất nguồn AC - 1 - huongvl1 - 06/05/2025 10:23:32</t>
+  </si>
+  <si>
+    <t>Trạm viễn thông loại 1</t>
+  </si>
+  <si>
+    <t>Trạm viễn thông loại 3</t>
   </si>
   <si>
     <t>Trạm viễn thông loại 2</t>
   </si>
   <si>
-    <t>Trạm viễn thông loại 1</t>
-  </si>
-  <si>
-    <t>Thạch Thất</t>
-  </si>
-  <si>
     <t>Ba Vì</t>
+  </si>
+  <si>
+    <t>Đan Phượng</t>
   </si>
 </sst>
 </file>
@@ -446,17 +497,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="84.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
@@ -493,23 +544,23 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2">
-        <v>0.71</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -517,23 +568,151 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2">
-        <v>29.61</v>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10.47</v>
       </c>
     </row>
   </sheetData>

--- a/report_summary.xlsx
+++ b/report_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>Tên NE</t>
   </si>
@@ -40,85 +40,37 @@
     <t>Kéo dài</t>
   </si>
   <si>
-    <t>SR_BVI027M_HNI</t>
-  </si>
-  <si>
-    <t>UL_BVI133M_HNI</t>
-  </si>
-  <si>
-    <t>UL_DPG058M_HNI</t>
-  </si>
-  <si>
-    <t>2G_BVI010M_HNI</t>
-  </si>
-  <si>
-    <t>3G_BVI010M_HNI</t>
-  </si>
-  <si>
-    <t>4G-BVI010M-HNI</t>
-  </si>
-  <si>
-    <t>SR_BVI010M_HNI</t>
-  </si>
-  <si>
-    <t>Thon-Lien-Tong-BVI_HNI</t>
-  </si>
-  <si>
-    <t>TONG-BAT-THON-TONG-LENH-BVI_HNI</t>
-  </si>
-  <si>
-    <t>KCN-CAU-GAO-DPG_HNI</t>
-  </si>
-  <si>
-    <t>Cam-Thuong-Thon-Van-Minh-BVI_HNI</t>
+    <t>UL_TTT093M_HNI</t>
+  </si>
+  <si>
+    <t>3G_DPG045S_HNI</t>
+  </si>
+  <si>
+    <t>THACH-HOA-TTT_HNI</t>
+  </si>
+  <si>
+    <t>TRUNG-CHAU-VAN-MON2-11-SMC-DPG_HNI</t>
   </si>
   <si>
     <t>POWER_AC_EAS</t>
   </si>
   <si>
-    <t>SITE_OOS_BY_POWER</t>
-  </si>
-  <si>
-    <t>06/05/2025 15:42:22</t>
-  </si>
-  <si>
-    <t>06/05/2025 15:37:25</t>
-  </si>
-  <si>
-    <t>06/05/2025 14:30:14</t>
-  </si>
-  <si>
-    <t>06/05/2025 13:42:12</t>
-  </si>
-  <si>
-    <t>06/05/2025 13:41:56</t>
-  </si>
-  <si>
-    <t>06/05/2025 13:41:51</t>
-  </si>
-  <si>
-    <t>06/05/2025 06:18:28</t>
-  </si>
-  <si>
-    <t>184205 - VTHN TĐML - HNI dựng lại côt thay cáp - 4 - thainh1 - 06/05/2025 13:56:39</t>
-  </si>
-  <si>
-    <t>184205 - VTHN TĐML - HNI dựng lại côt thay cáp - 4 - thainh1 - 06/05/2025 13:56:40</t>
-  </si>
-  <si>
-    <t>Mất nguồn AC - 1 - huongvl1 - 06/05/2025 10:23:32</t>
-  </si>
-  <si>
-    <t>Trạm viễn thông loại 1</t>
+    <t>SITE_OOS</t>
+  </si>
+  <si>
+    <t>07/05/2025 13:18:36</t>
+  </si>
+  <si>
+    <t>06/05/2025 23:18:18</t>
+  </si>
+  <si>
+    <t>Trạm smc mất điện - 1 - sonnn - 06/05/2025 23:24:34</t>
   </si>
   <si>
     <t>Trạm viễn thông loại 3</t>
   </si>
   <si>
-    <t>Trạm viễn thông loại 2</t>
-  </si>
-  <si>
-    <t>Ba Vì</t>
+    <t>Thạch Thất</t>
   </si>
   <si>
     <t>Đan Phượng</t>
@@ -497,17 +449,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="84.7109375" customWidth="1"/>
+    <col min="5" max="5" width="53.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
@@ -544,23 +496,23 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2">
-        <v>1.08</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -568,151 +520,25 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="H3" s="2">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2.28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="2">
-        <v>3.08</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3.08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="2">
-        <v>10.47</v>
+        <v>14.39</v>
       </c>
     </row>
   </sheetData>

--- a/report_summary.xlsx
+++ b/report_summary.xlsx
@@ -58,7 +58,7 @@
     <t>SITE_OOS</t>
   </si>
   <si>
-    <t>07/05/2025 13:18:36</t>
+    <t>07/05/2025 14:13:49</t>
   </si>
   <si>
     <t>06/05/2025 23:18:18</t>
@@ -512,7 +512,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="2">
-        <v>0.38</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -538,7 +538,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="2">
-        <v>14.39</v>
+        <v>15.87</v>
       </c>
     </row>
   </sheetData>

--- a/report_summary.xlsx
+++ b/report_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
   <si>
     <t>Tên NE</t>
   </si>
@@ -40,16 +40,25 @@
     <t>Kéo dài</t>
   </si>
   <si>
+    <t>SR_PTO016M_HNI</t>
+  </si>
+  <si>
     <t>UL_TTT093M_HNI</t>
   </si>
   <si>
-    <t>3G_DPG045S_HNI</t>
+    <t>4G-STY003M-HNI</t>
+  </si>
+  <si>
+    <t>3G_STY003M_HNI</t>
+  </si>
+  <si>
+    <t>Tam-Hiep-Thon-Thuong-PTO_HNI</t>
   </si>
   <si>
     <t>THACH-HOA-TTT_HNI</t>
   </si>
   <si>
-    <t>TRUNG-CHAU-VAN-MON2-11-SMC-DPG_HNI</t>
+    <t>Lang-Van-Hoa-STY_HNI</t>
   </si>
   <si>
     <t>POWER_AC_EAS</t>
@@ -58,22 +67,40 @@
     <t>SITE_OOS</t>
   </si>
   <si>
-    <t>07/05/2025 14:13:49</t>
-  </si>
-  <si>
-    <t>06/05/2025 23:18:18</t>
-  </si>
-  <si>
-    <t>Trạm smc mất điện - 1 - sonnn - 06/05/2025 23:24:34</t>
+    <t>09/05/2025 14:07:23</t>
+  </si>
+  <si>
+    <t>09/05/2025 12:39:56</t>
+  </si>
+  <si>
+    <t>08/05/2025 08:56:47</t>
+  </si>
+  <si>
+    <t>08/05/2025 08:10:05</t>
+  </si>
+  <si>
+    <t>184602- VTHN ĐKTĐ - Thay cột treo anten trạm , dự kiến từ 08h00 ngày 07/05 đến ngày 12/05 - 4 - hanhhh - 08/05/2025 09:17:21</t>
+  </si>
+  <si>
+    <t>184602- VTHN ĐKTĐ - Thay cột treo anten trạm , dự kiến từ 08h00 ngày 07/05 đến ngày 12/05  - 1 - hanhhh - 08/05/2025 08:54:42</t>
+  </si>
+  <si>
+    <t>Trạm viễn thông loại 2</t>
   </si>
   <si>
     <t>Trạm viễn thông loại 3</t>
   </si>
   <si>
+    <t>Trạm viễn thông loại 1</t>
+  </si>
+  <si>
+    <t>Phúc Thọ</t>
+  </si>
+  <si>
     <t>Thạch Thất</t>
   </si>
   <si>
-    <t>Đan Phượng</t>
+    <t>Sơn Tây</t>
   </si>
 </sst>
 </file>
@@ -449,17 +476,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="53.7109375" customWidth="1"/>
+    <col min="5" max="5" width="127.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
@@ -496,23 +523,23 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2">
-        <v>0.95</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -520,25 +547,75 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2">
+        <v>29.37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2">
-        <v>15.87</v>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2">
+        <v>30.15</v>
       </c>
     </row>
   </sheetData>
